--- a/Docs/ID Lists.xlsx
+++ b/Docs/ID Lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A8E967-AC3D-4C34-8657-914527A169D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223C48F-B91E-4A39-976F-6B0F5118D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Electrical IDs" sheetId="1" r:id="rId1"/>
@@ -1583,9 +1583,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1628,6 +1625,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1672,7 +1672,7 @@
     <tableColumn id="3" xr3:uid="{12F9C25F-8EE1-4903-9829-BB393B754AE2}" name="AWG"/>
     <tableColumn id="4" xr3:uid="{9DAEE46D-2720-4E12-B7C7-7347C849AB98}" name="Pin Count"/>
     <tableColumn id="5" xr3:uid="{09BB7B9C-817F-47EC-B02A-087CF00AE010}" name="Len (cm)"/>
-    <tableColumn id="10" xr3:uid="{32FDE131-45FB-4569-9AD2-489ACB6C5A82}" name="Column1" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{32FDE131-45FB-4569-9AD2-489ACB6C5A82}" name="Column1" dataDxfId="5">
       <calculatedColumnFormula>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{41A61DCB-EB69-4ABD-AC8C-6A79DAAE3294}" name="Conn A"/>
@@ -1714,12 +1714,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A69B5B3E-6862-404E-BD2D-269E8426AC20}" name="Table5" displayName="Table5" ref="A1:F97" totalsRowCount="1">
   <autoFilter ref="A1:F96" xr:uid="{A69B5B3E-6862-404E-BD2D-269E8426AC20}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{74644EAE-7BA4-4FB3-8AD5-3C78AE3D81AD}" name="PN" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{93DF1DAA-9D24-4594-B29D-2B6C121D089A}" name="Description" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{74644EAE-7BA4-4FB3-8AD5-3C78AE3D81AD}" name="PN" totalsRowLabel="Total" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{93DF1DAA-9D24-4594-B29D-2B6C121D089A}" name="Description" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="3" xr3:uid="{ADFE1D10-4761-4B07-8EB7-A4DDEEF5308B}" name="Material"/>
     <tableColumn id="4" xr3:uid="{A91C48D7-D2C5-4A18-9E62-A24A122EE139}" name="HS Inserts"/>
     <tableColumn id="5" xr3:uid="{0112B1B1-C190-46E0-8D0F-19B785DD6A37}" name="Qty"/>
-    <tableColumn id="6" xr3:uid="{6618CC07-9735-42B6-AD61-ED6CD4EA2E17}" name="Subtotal" totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{6618CC07-9735-42B6-AD61-ED6CD4EA2E17}" name="Subtotal" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>Table5[[#This Row],[HS Inserts]]*Table5[[#This Row],[Qty]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2477,7 +2477,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,34 +2759,37 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>483</v>
+        <v>149</v>
+      </c>
+      <c r="I10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -2798,14 +2801,14 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
         <v>483</v>
@@ -2813,10 +2816,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -2825,50 +2828,47 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="F12">
         <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>484</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" t="s">
-        <v>161</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <f>Table3[[#This Row],[Pin Count]]*Table3[[#This Row],[Len (cm)]]</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
         <v>149</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/Docs/ID Lists.xlsx
+++ b/Docs/ID Lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223C48F-B91E-4A39-976F-6B0F5118D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF290494-20BC-4AD7-898B-67EA3F4B75EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Electrical IDs" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Printed IDs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="491">
   <si>
     <t>Short Name</t>
   </si>
@@ -469,9 +470,6 @@
     <t>MB-B</t>
   </si>
   <si>
-    <t>(None)</t>
-  </si>
-  <si>
     <t>XH F</t>
   </si>
   <si>
@@ -628,18 +626,12 @@
     <t>AC Input power</t>
   </si>
   <si>
-    <t>120VAC/240VAC</t>
-  </si>
-  <si>
     <t>PSU Out</t>
   </si>
   <si>
     <t>Frame/bed earthing wires</t>
   </si>
   <si>
-    <t>Power In</t>
-  </si>
-  <si>
     <t>Comes with Mini 12864</t>
   </si>
   <si>
@@ -1493,6 +1485,33 @@
   </si>
   <si>
     <t>MF3 M2</t>
+  </si>
+  <si>
+    <t>Buck Converter</t>
+  </si>
+  <si>
+    <t>(none)</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>24V/5V</t>
+  </si>
+  <si>
+    <t>Local AC</t>
+  </si>
+  <si>
+    <t>Local AC/24V</t>
+  </si>
+  <si>
+    <t>Bare</t>
   </si>
 </sst>
 </file>
@@ -1643,8 +1662,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D37" totalsRowShown="0">
-  <autoFilter ref="A1:D37" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}" name="Table1" displayName="Table1" ref="A1:D38" totalsRowShown="0">
+  <autoFilter ref="A1:D38" xr:uid="{81D963E9-CE95-4BC2-948A-F06F71DA6788}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2024,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44E78C7-E25B-460C-937F-CCE8B1E2A7B2}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,37 +2449,60 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>488</v>
+      </c>
+      <c r="D35" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="C37" t="s">
+        <v>485</v>
+      </c>
+      <c r="D37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C38" t="s">
+        <v>487</v>
+      </c>
+      <c r="D38" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -2476,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CAEEC-A537-49E7-8CB6-74590B623C46}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,7 +2550,7 @@
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G1" t="s">
         <v>99</v>
@@ -2522,7 +2564,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2541,18 +2583,18 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -2568,21 +2610,21 @@
         <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -2598,21 +2640,21 @@
         <v>75</v>
       </c>
       <c r="G4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" t="s">
         <v>148</v>
       </c>
-      <c r="H4" t="s">
-        <v>149</v>
-      </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -2628,21 +2670,21 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
         <v>148</v>
       </c>
-      <c r="H5" t="s">
-        <v>149</v>
-      </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
         <v>153</v>
-      </c>
-      <c r="B6" t="s">
-        <v>154</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -2658,21 +2700,21 @@
         <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -2688,21 +2730,21 @@
         <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -2718,21 +2760,21 @@
         <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
         <v>162</v>
-      </c>
-      <c r="B9" t="s">
-        <v>163</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -2748,21 +2790,21 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s">
         <v>148</v>
       </c>
-      <c r="H9" t="s">
-        <v>149</v>
-      </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -2778,13 +2820,13 @@
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2808,10 +2850,10 @@
         <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="H11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2835,18 +2877,18 @@
         <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -2862,13 +2904,13 @@
         <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2892,10 +2934,10 @@
         <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2919,10 +2961,10 @@
         <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2946,10 +2988,10 @@
         <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,10 +3015,10 @@
         <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3000,10 +3042,10 @@
         <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3027,10 +3069,10 @@
         <v>300</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3054,13 +3096,13 @@
         <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,10 +3126,10 @@
         <v>750</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3111,10 +3153,10 @@
         <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3138,10 +3180,10 @@
         <v>600</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,10 +3207,10 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I24" t="s">
         <v>125</v>
@@ -3195,10 +3237,10 @@
         <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3222,10 +3264,10 @@
         <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3249,13 +3291,13 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="I27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3279,10 +3321,10 @@
         <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="H28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3306,10 +3348,10 @@
         <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3333,13 +3375,13 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3363,13 +3405,13 @@
         <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3393,10 +3435,10 @@
         <v>330</v>
       </c>
       <c r="G32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3420,13 +3462,13 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3450,10 +3492,10 @@
         <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3477,10 +3519,10 @@
         <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3504,10 +3546,10 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3531,10 +3573,10 @@
         <v>315</v>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3558,10 +3600,10 @@
         <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3585,10 +3627,10 @@
         <v>225</v>
       </c>
       <c r="G39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3612,10 +3654,10 @@
         <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3639,10 +3681,10 @@
         <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3666,10 +3708,10 @@
         <v>280</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3693,10 +3735,10 @@
         <v>400</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3720,10 +3762,10 @@
         <v>280</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,10 +3789,10 @@
         <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3774,10 +3816,10 @@
         <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H46" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I46" t="s">
         <v>125</v>
@@ -3804,10 +3846,10 @@
         <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H47" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I47" t="s">
         <v>125</v>
@@ -3815,7 +3857,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -3834,15 +3876,15 @@
         <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -3861,15 +3903,15 @@
         <v>120</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
@@ -3888,15 +3930,15 @@
         <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
         <v>41</v>
@@ -3915,15 +3957,15 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -3942,15 +3984,15 @@
         <v>120</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="H52" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -3969,15 +4011,15 @@
         <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -3996,15 +4038,15 @@
         <v>120</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="H54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
@@ -4023,15 +4065,15 @@
         <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -4050,18 +4092,18 @@
         <v>170</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="I56" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -4080,18 +4122,18 @@
         <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H57" t="s">
-        <v>143</v>
+        <v>490</v>
       </c>
       <c r="I57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -4110,10 +4152,10 @@
         <v>170</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4137,10 +4179,10 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I59" t="s">
         <v>123</v>
@@ -4171,10 +4213,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
       </c>
       <c r="C1" t="s">
         <v>90</v>
@@ -4188,47 +4230,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
         <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -4236,36 +4278,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
         <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>186</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4280,41 +4322,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B02D3-B4BD-4CA5-AFCD-0AF29CD03E0E}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
         <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -4322,13 +4364,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -4336,13 +4378,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -4350,13 +4392,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -4364,13 +4406,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
         <v>255</v>
       </c>
-      <c r="B6" t="s">
-        <v>258</v>
-      </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -4381,10 +4423,10 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -4395,10 +4437,10 @@
         <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -4409,10 +4451,10 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -4420,13 +4462,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -4434,13 +4476,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -4448,13 +4490,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -4462,13 +4504,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -4476,13 +4518,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -4490,13 +4532,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -4504,13 +4546,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -4518,13 +4560,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" t="s">
         <v>263</v>
       </c>
-      <c r="B17" t="s">
-        <v>266</v>
-      </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -4532,13 +4574,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" t="s">
         <v>264</v>
       </c>
-      <c r="B18" t="s">
-        <v>267</v>
-      </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4546,13 +4588,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4560,13 +4602,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -4574,13 +4616,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D21">
         <v>11</v>
@@ -4588,13 +4630,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -4602,13 +4644,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -4616,13 +4658,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -4630,13 +4672,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -4644,13 +4686,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -4658,13 +4700,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -4672,13 +4714,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -4686,13 +4728,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -4700,13 +4742,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -4714,13 +4756,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -4728,13 +4770,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -4742,13 +4784,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -4756,13 +4798,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -4770,13 +4812,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -4808,33 +4850,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -4849,13 +4891,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4870,13 +4912,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4891,13 +4933,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4912,13 +4954,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4933,13 +4975,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4954,13 +4996,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4975,13 +5017,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4996,13 +5038,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5017,13 +5059,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -5038,13 +5080,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5059,13 +5101,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -5080,13 +5122,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5101,13 +5143,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -5122,13 +5164,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5143,13 +5185,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C17" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5164,13 +5206,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5185,13 +5227,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -5206,13 +5248,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5227,13 +5269,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5248,13 +5290,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -5269,13 +5311,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C23" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -5290,13 +5332,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5311,13 +5353,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5332,13 +5374,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -5353,13 +5395,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -5374,13 +5416,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -5395,13 +5437,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5416,13 +5458,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C30" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5437,13 +5479,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C31" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -5458,13 +5500,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -5479,13 +5521,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C33" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -5500,13 +5542,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C34" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -5521,13 +5563,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5542,13 +5584,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5563,13 +5605,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C37" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -5584,13 +5626,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C38" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5605,13 +5647,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -5626,13 +5668,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5647,13 +5689,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C41" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -5668,13 +5710,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C42" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5689,13 +5731,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -5710,13 +5752,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C44" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -5731,13 +5773,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5752,13 +5794,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5773,13 +5815,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C47" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -5794,13 +5836,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C48" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -5815,13 +5857,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C49" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -5836,13 +5878,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C50" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -5857,13 +5899,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C51" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5878,13 +5920,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C52" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -5899,13 +5941,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C53" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -5920,13 +5962,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C54" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5941,13 +5983,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C55" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5962,13 +6004,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C56" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -5983,13 +6025,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C57" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -6004,13 +6046,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C58" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6025,13 +6067,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6046,13 +6088,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -6067,13 +6109,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C61" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6088,13 +6130,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6109,13 +6151,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C63" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6130,13 +6172,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C64" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6151,13 +6193,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C65" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -6172,13 +6214,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C66" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -6193,13 +6235,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C67" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -6214,13 +6256,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C68" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6235,13 +6277,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C69" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -6256,13 +6298,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C70" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -6277,13 +6319,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C71" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -6298,13 +6340,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C72" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -6319,13 +6361,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C73" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -6340,13 +6382,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C74" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -6361,13 +6403,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C75" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D75">
         <v>7</v>
@@ -6382,13 +6424,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C76" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -6403,13 +6445,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C77" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -6424,13 +6466,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C78" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -6445,13 +6487,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C79" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -6466,13 +6508,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C80" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -6487,13 +6529,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C81" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -6508,13 +6550,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C82" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -6529,13 +6571,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C83" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -6550,13 +6592,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C84" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -6571,13 +6613,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C85" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -6592,13 +6634,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C86" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6613,13 +6655,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C87" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -6634,13 +6676,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C88" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -6655,13 +6697,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C89" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -6676,13 +6718,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C90" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -6697,13 +6739,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C91" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6718,13 +6760,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C92" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -6739,13 +6781,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C93" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -6760,13 +6802,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C94" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -6781,13 +6823,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C95" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -6802,13 +6844,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C96" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -6823,7 +6865,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B97" s="6"/>
       <c r="F97">

--- a/Docs/ID Lists.xlsx
+++ b/Docs/ID Lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF290494-20BC-4AD7-898B-67EA3F4B75EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2790343D-308A-4040-80E0-2800B079B204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2BA3904D-48D5-4484-9C88-BD860323DFB0}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Printed IDs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1719,6 +1718,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6CC0DADB-E8D9-463A-B96B-5664F85A7DEB}" name="Table2" displayName="Table2" ref="A1:D35" totalsRowShown="0">
   <autoFilter ref="A1:D35" xr:uid="{6CC0DADB-E8D9-463A-B96B-5664F85A7DEB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{592DED60-E02C-4D13-A917-4A7AB47E8CC8}" name="Frame ID"/>
     <tableColumn id="2" xr3:uid="{12FAA4CE-208D-4C64-BC5E-8B4BA363FE63}" name="PN"/>
@@ -4323,7 +4325,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A7" sqref="A7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,147 +4352,147 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
         <v>258</v>
@@ -4499,26 +4501,26 @@
         <v>257</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
         <v>227</v>
@@ -4532,21 +4534,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
         <v>263</v>
@@ -4555,26 +4557,26 @@
         <v>265</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
         <v>264</v>
@@ -4588,83 +4590,83 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -4672,41 +4674,41 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -4714,114 +4716,114 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
